--- a/Base/Teams/Dolphins/Players Data.xlsx
+++ b/Base/Teams/Dolphins/Players Data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
   <si>
     <t>Name</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>RZ Comp</t>
+  </si>
+  <si>
+    <t>D.Parker</t>
   </si>
   <si>
     <t>J.Grant</t>
@@ -493,7 +496,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2">
         <v>6</v>
@@ -533,16 +536,16 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="D4">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -573,10 +576,10 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -732,7 +735,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -769,10 +772,10 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -781,10 +784,10 @@
         <v>2</v>
       </c>
       <c r="G2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -870,25 +873,25 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C6">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="D6">
-        <v>72</v>
+        <v>5</v>
       </c>
       <c r="E6">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -896,25 +899,25 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -922,25 +925,25 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C8">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -948,25 +951,25 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D9">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G9">
         <v>2</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -974,25 +977,25 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C10">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D10">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1003,22 +1006,22 @@
         <v>25</v>
       </c>
       <c r="C11">
+        <v>16</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11">
         <v>7</v>
       </c>
-      <c r="D11">
-        <v>5</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
       <c r="F11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G11">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1029,22 +1032,22 @@
         <v>26</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1055,22 +1058,22 @@
         <v>27</v>
       </c>
       <c r="C13">
-        <v>63</v>
+        <v>2</v>
       </c>
       <c r="D13">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="E13">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1081,22 +1084,22 @@
         <v>28</v>
       </c>
       <c r="C14">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="D14">
+        <v>47</v>
+      </c>
+      <c r="E14">
+        <v>17</v>
+      </c>
+      <c r="F14">
         <v>11</v>
       </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
       <c r="G14">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1107,22 +1110,22 @@
         <v>29</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1130,24 +1133,50 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
         <v>16</v>
       </c>
-      <c r="C16">
-        <v>25</v>
-      </c>
-      <c r="D16">
+      <c r="C17">
+        <v>26</v>
+      </c>
+      <c r="D17">
         <v>21</v>
       </c>
-      <c r="E16">
+      <c r="E17">
         <v>6</v>
       </c>
-      <c r="F16">
+      <c r="F17">
         <v>4</v>
       </c>
-      <c r="G16">
+      <c r="G17">
         <v>6</v>
       </c>
-      <c r="H16">
+      <c r="H17">
         <v>3</v>
       </c>
     </row>

--- a/Base/Teams/Dolphins/Players Data.xlsx
+++ b/Base/Teams/Dolphins/Players Data.xlsx
@@ -1,16 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/136736bc97bfa800/Robbie/Football/nfl-simulation-app/Base/Teams/Dolphins/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="12" documentId="11_CBFCF30D7ED3D0E865D0C056F8EA4577E132F03B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8269F203-B2C6-435A-B1F2-CEFADA6D4BD7}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rushing" sheetId="1" r:id="rId1"/>
     <sheet name="Receiving" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -113,8 +130,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,6 +194,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -223,7 +248,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -255,9 +280,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -289,6 +332,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -464,14 +525,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -488,7 +549,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -508,7 +569,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -528,7 +589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -548,7 +609,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -568,7 +629,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -588,7 +649,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -608,7 +669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -628,7 +689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -648,7 +709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -668,7 +729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -688,7 +749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -708,7 +769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -734,14 +795,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -764,7 +827,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -790,7 +853,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -816,7 +879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -842,7 +905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -868,7 +931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -876,25 +939,25 @@
         <v>23</v>
       </c>
       <c r="C6">
+        <v>70</v>
+      </c>
+      <c r="D6">
+        <v>64</v>
+      </c>
+      <c r="E6">
+        <v>14</v>
+      </c>
+      <c r="F6">
+        <v>7</v>
+      </c>
+      <c r="G6">
         <v>5</v>
       </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
       <c r="H6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -902,25 +965,25 @@
         <v>13</v>
       </c>
       <c r="C7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -946,7 +1009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -972,7 +1035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -998,7 +1061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1024,7 +1087,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1050,7 +1113,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1076,7 +1139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1102,7 +1165,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1128,7 +1191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1154,7 +1217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>

--- a/Base/Teams/Dolphins/Players Data.xlsx
+++ b/Base/Teams/Dolphins/Players Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/136736bc97bfa800/Robbie/Football/nfl-simulation-app/Base/Teams/Dolphins/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="11_CBFCF30D7ED3D0E865D0C056F8EA4577E132F03B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8269F203-B2C6-435A-B1F2-CEFADA6D4BD7}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_C8C49211F8CB90A8B313C056F8EA4577E132A037" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C38C8579-D98E-44D6-91BA-A065A45CEE0A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,23 +16,12 @@
     <sheet name="Rushing" sheetId="1" r:id="rId1"/>
     <sheet name="Receiving" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
   <si>
     <t>Name</t>
   </si>
@@ -156,7 +145,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -179,13 +168,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -557,13 +560,13 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D2">
         <v>6</v>
       </c>
       <c r="E2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2">
         <v>8</v>
@@ -583,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -597,13 +600,13 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D4">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F4">
         <v>27</v>
@@ -677,16 +680,16 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -757,7 +760,7 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -796,10 +799,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -936,25 +939,25 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C6">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -962,25 +965,25 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -1043,13 +1046,13 @@
         <v>15</v>
       </c>
       <c r="C10">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D10">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -1069,7 +1072,7 @@
         <v>25</v>
       </c>
       <c r="C11">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -1081,7 +1084,7 @@
         <v>3</v>
       </c>
       <c r="G11">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H11">
         <v>4</v>
@@ -1095,16 +1098,16 @@
         <v>26</v>
       </c>
       <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12">
         <v>8</v>
       </c>
-      <c r="D12">
-        <v>6</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -1147,22 +1150,22 @@
         <v>28</v>
       </c>
       <c r="C14">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D14">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E14">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F14">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G14">
+        <v>9</v>
+      </c>
+      <c r="H14">
         <v>7</v>
-      </c>
-      <c r="H14">
-        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -1199,7 +1202,7 @@
         <v>30</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -1225,10 +1228,10 @@
         <v>16</v>
       </c>
       <c r="C17">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E17">
         <v>6</v>
@@ -1237,10 +1240,36 @@
         <v>4</v>
       </c>
       <c r="G17">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H17">
-        <v>3</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18">
+        <v>108</v>
+      </c>
+      <c r="D18">
+        <v>88</v>
+      </c>
+      <c r="E18">
+        <v>19</v>
+      </c>
+      <c r="F18">
+        <v>9</v>
+      </c>
+      <c r="G18">
+        <v>15</v>
+      </c>
+      <c r="H18">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Base/Teams/Dolphins/Players Data.xlsx
+++ b/Base/Teams/Dolphins/Players Data.xlsx
@@ -1,27 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/136736bc97bfa800/Robbie/Football/nfl-simulation-app/Base/Teams/Dolphins/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_C8C49211F8CB90A8B313C056F8EA4577E132A037" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C38C8579-D98E-44D6-91BA-A065A45CEE0A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Rushing" sheetId="1" r:id="rId1"/>
     <sheet name="Receiving" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
   <si>
     <t>Name</t>
   </si>
@@ -105,6 +99,9 @@
   </si>
   <si>
     <t>K.Merritt</t>
+  </si>
+  <si>
+    <t>T.Lewis</t>
   </si>
   <si>
     <t>M.Gesicki</t>
@@ -119,8 +116,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,7 +142,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -168,27 +165,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -197,14 +180,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -251,7 +226,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -283,27 +258,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -335,24 +292,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -528,14 +467,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -552,7 +491,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -572,7 +511,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -592,7 +531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -603,7 +542,7 @@
         <v>90</v>
       </c>
       <c r="D4">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E4">
         <v>14</v>
@@ -612,7 +551,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -632,7 +571,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -652,7 +591,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -672,7 +611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -680,19 +619,19 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D8">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -700,19 +639,19 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D9">
+        <v>6</v>
+      </c>
+      <c r="E9">
         <v>4</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
       <c r="F9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -732,7 +671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -743,16 +682,16 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -772,7 +711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -798,16 +737,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -830,7 +767,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -838,10 +775,10 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -850,13 +787,13 @@
         <v>2</v>
       </c>
       <c r="G2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H2">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -882,7 +819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -908,7 +845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -934,7 +871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -960,7 +897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -986,290 +923,316 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>118</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>97</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C9">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="D10">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="E10">
         <v>3</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G10">
         <v>2</v>
       </c>
       <c r="H10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C11">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D11">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12">
+        <v>17</v>
+      </c>
+      <c r="D12">
         <v>10</v>
       </c>
-      <c r="D12">
-        <v>8</v>
-      </c>
       <c r="E12">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G12">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14">
-        <v>78</v>
+        <v>2</v>
       </c>
       <c r="D14">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="E14">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D15">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16">
-        <v>3</v>
+        <v>81</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17">
+        <v>15</v>
+      </c>
+      <c r="D17">
+        <v>11</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="C17">
-        <v>27</v>
-      </c>
-      <c r="D17">
-        <v>22</v>
-      </c>
-      <c r="E17">
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19">
+        <v>30</v>
+      </c>
+      <c r="D19">
+        <v>25</v>
+      </c>
+      <c r="E19">
         <v>6</v>
       </c>
-      <c r="F17">
+      <c r="F19">
         <v>4</v>
       </c>
-      <c r="G17">
+      <c r="G19">
         <v>7</v>
       </c>
-      <c r="H17">
+      <c r="H19">
         <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18">
-        <v>108</v>
-      </c>
-      <c r="D18">
-        <v>88</v>
-      </c>
-      <c r="E18">
-        <v>19</v>
-      </c>
-      <c r="F18">
-        <v>9</v>
-      </c>
-      <c r="G18">
-        <v>15</v>
-      </c>
-      <c r="H18">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Base/Teams/Dolphins/Players Data.xlsx
+++ b/Base/Teams/Dolphins/Players Data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
   <si>
     <t>Name</t>
   </si>
@@ -505,7 +505,7 @@
         <v>6</v>
       </c>
       <c r="E2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2">
         <v>8</v>
@@ -539,10 +539,10 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D4">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E4">
         <v>14</v>
@@ -619,13 +619,13 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D8">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F8">
         <v>7</v>
@@ -639,7 +639,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D9">
         <v>6</v>
@@ -738,7 +738,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -879,10 +879,10 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -902,25 +902,25 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C7">
-        <v>77</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>67</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -928,25 +928,25 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C8">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="D8">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="E8">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F8">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G8">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="H8">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -954,25 +954,25 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>123</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>99</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -980,25 +980,25 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C10">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1006,25 +1006,25 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="D11">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="E11">
         <v>3</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11">
         <v>2</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1032,25 +1032,25 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C12">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D12">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H12">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1058,25 +1058,25 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13">
+        <v>18</v>
+      </c>
+      <c r="D13">
         <v>10</v>
       </c>
-      <c r="D13">
-        <v>8</v>
-      </c>
       <c r="E13">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G13">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1084,25 +1084,25 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1110,7 +1110,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15">
         <v>2</v>
@@ -1119,13 +1119,13 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1136,25 +1136,25 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16">
-        <v>81</v>
+        <v>2</v>
       </c>
       <c r="D16">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="E16">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H16">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1162,25 +1162,25 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C17">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="D17">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G17">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1188,25 +1188,25 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1214,24 +1214,50 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
         <v>16</v>
       </c>
-      <c r="C19">
-        <v>30</v>
-      </c>
-      <c r="D19">
-        <v>25</v>
-      </c>
-      <c r="E19">
-        <v>6</v>
-      </c>
-      <c r="F19">
-        <v>4</v>
-      </c>
-      <c r="G19">
+      <c r="C20">
+        <v>32</v>
+      </c>
+      <c r="D20">
+        <v>27</v>
+      </c>
+      <c r="E20">
         <v>7</v>
       </c>
-      <c r="H19">
+      <c r="F20">
+        <v>5</v>
+      </c>
+      <c r="G20">
+        <v>7</v>
+      </c>
+      <c r="H20">
         <v>4</v>
       </c>
     </row>

--- a/Base/Teams/Dolphins/Players Data.xlsx
+++ b/Base/Teams/Dolphins/Players Data.xlsx
@@ -502,10 +502,10 @@
         <v>7</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F2">
         <v>8</v>
@@ -542,7 +542,7 @@
         <v>93</v>
       </c>
       <c r="D4">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E4">
         <v>14</v>
@@ -619,16 +619,16 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="D8">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E8">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F8">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -639,16 +639,16 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D9">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E9">
         <v>4</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -775,10 +775,10 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D2">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -879,10 +879,10 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -931,10 +931,10 @@
         <v>23</v>
       </c>
       <c r="C8">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D8">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E8">
         <v>19</v>
@@ -943,10 +943,10 @@
         <v>9</v>
       </c>
       <c r="G8">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -957,10 +957,10 @@
         <v>13</v>
       </c>
       <c r="C9">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="D9">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E9">
         <v>23</v>
@@ -969,10 +969,10 @@
         <v>11</v>
       </c>
       <c r="G9">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H9">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1067,7 +1067,7 @@
         <v>10</v>
       </c>
       <c r="E13">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F13">
         <v>4</v>
@@ -1165,10 +1165,10 @@
         <v>29</v>
       </c>
       <c r="C17">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D17">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E17">
         <v>23</v>
@@ -1243,10 +1243,10 @@
         <v>16</v>
       </c>
       <c r="C20">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D20">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E20">
         <v>7</v>
